--- a/state.xlsx
+++ b/state.xlsx
@@ -602,7 +602,7 @@
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/state.xlsx
+++ b/state.xlsx
@@ -602,7 +602,7 @@
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="P51" sqref="P51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1088,7 +1088,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>15</v>
       </c>
       <c r="Q10" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="R10" t="s">
         <v>15</v>
@@ -1312,7 +1312,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>60</v>
       </c>

--- a/state.xlsx
+++ b/state.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="74">
   <si>
     <t>s1</t>
   </si>
@@ -306,6 +306,18 @@
   </si>
   <si>
     <t>s13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停止</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -313,7 +325,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -326,6 +338,15 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -352,11 +373,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -639,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -656,15 +683,16 @@
     <col min="8" max="8" width="12.75" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="12.125" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="0" hidden="1" customWidth="1"/>
-    <col min="11" max="12" width="12.25" customWidth="1"/>
-    <col min="13" max="13" width="9.125" customWidth="1"/>
-    <col min="15" max="15" width="9.625" customWidth="1"/>
-    <col min="17" max="17" width="9.625" customWidth="1"/>
-    <col min="20" max="20" width="13.5" customWidth="1"/>
-    <col min="21" max="21" width="10.75" customWidth="1"/>
+    <col min="11" max="14" width="12.25" customWidth="1"/>
+    <col min="15" max="15" width="12.25" style="2" customWidth="1"/>
+    <col min="16" max="16" width="9.125" customWidth="1"/>
+    <col min="18" max="18" width="9.625" customWidth="1"/>
+    <col min="20" max="20" width="9.625" customWidth="1"/>
+    <col min="23" max="23" width="13.5" customWidth="1"/>
+    <col min="24" max="24" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
         <v>16</v>
       </c>
@@ -696,37 +724,46 @@
         <v>7</v>
       </c>
       <c r="M1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" t="s">
+        <v>73</v>
+      </c>
+      <c r="P1" t="s">
         <v>60</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>67</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>61</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>62</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>41</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>8</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>9</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>37</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -785,16 +822,25 @@
         <v>13</v>
       </c>
       <c r="T2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -831,38 +877,38 @@
       <c r="L3" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="Q3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" t="s">
         <v>63</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T3" t="s">
-        <v>1</v>
-      </c>
-      <c r="U3" t="s">
-        <v>1</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="T3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W3" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -899,29 +945,29 @@
       <c r="L4" t="s">
         <v>10</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
         <v>46</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T4" t="s">
-        <v>11</v>
-      </c>
-      <c r="U4" t="s">
-        <v>11</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="T4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W4" t="s">
+        <v>11</v>
+      </c>
+      <c r="X4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -958,29 +1004,29 @@
       <c r="L5" t="s">
         <v>10</v>
       </c>
-      <c r="M5" t="s">
+      <c r="P5" t="s">
         <v>47</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="T5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W5" t="s">
         <v>18</v>
       </c>
-      <c r="U5" t="s">
+      <c r="X5" t="s">
         <v>18</v>
       </c>
-      <c r="V5" t="s">
+      <c r="Y5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1017,29 +1063,29 @@
       <c r="L6" t="s">
         <v>10</v>
       </c>
-      <c r="M6" t="s">
+      <c r="P6" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T6" t="s">
+      <c r="T6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W6" t="s">
         <v>29</v>
       </c>
-      <c r="U6" t="s">
+      <c r="X6" t="s">
         <v>29</v>
       </c>
-      <c r="V6" t="s">
+      <c r="Y6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1076,29 +1122,29 @@
       <c r="L7" t="s">
         <v>10</v>
       </c>
-      <c r="M7" t="s">
+      <c r="P7" t="s">
         <v>46</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T7" t="s">
+      <c r="T7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W7" t="s">
         <v>32</v>
       </c>
-      <c r="U7" t="s">
+      <c r="X7" t="s">
         <v>32</v>
       </c>
-      <c r="V7" t="s">
+      <c r="Y7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1135,29 +1181,29 @@
       <c r="L8" t="s">
         <v>10</v>
       </c>
-      <c r="M8" t="s">
+      <c r="P8" t="s">
         <v>48</v>
       </c>
-      <c r="Q8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T8" t="s">
+      <c r="T8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W8" t="s">
         <v>33</v>
       </c>
-      <c r="U8" t="s">
+      <c r="X8" t="s">
         <v>33</v>
       </c>
-      <c r="V8" t="s">
+      <c r="Y8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -1191,21 +1237,24 @@
       <c r="L9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O9" s="1"/>
-      <c r="Q9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="R9" s="1" t="s">
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R9" s="1"/>
+      <c r="T9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U9" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="V9" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>58</v>
       </c>
@@ -1242,38 +1291,41 @@
       <c r="L10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="3"/>
       <c r="P10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="Q10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="U10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="V10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T10" t="s">
+      <c r="W10" t="s">
         <v>14</v>
       </c>
-      <c r="U10" t="s">
+      <c r="X10" t="s">
         <v>14</v>
       </c>
-      <c r="V10" t="s">
+      <c r="Y10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -1310,30 +1362,33 @@
       <c r="L11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O11" s="1"/>
-      <c r="Q11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R11" s="1" t="s">
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R11" s="1"/>
+      <c r="T11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="V11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="T11" t="s">
+      <c r="W11" t="s">
         <v>51</v>
       </c>
-      <c r="U11" t="s">
+      <c r="X11" t="s">
         <v>46</v>
       </c>
-      <c r="V11" t="s">
+      <c r="Y11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>44</v>
       </c>
@@ -1370,30 +1425,33 @@
       <c r="L12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O12" s="1"/>
-      <c r="Q12" s="1" t="s">
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R12" s="1"/>
+      <c r="T12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="U12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="V12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="T12" t="s">
+      <c r="W12" t="s">
         <v>51</v>
       </c>
-      <c r="U12" t="s">
+      <c r="X12" t="s">
         <v>47</v>
       </c>
-      <c r="V12" t="s">
+      <c r="Y12" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -1401,7 +1459,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -1438,30 +1496,33 @@
       <c r="L14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O14" s="1"/>
-      <c r="Q14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R14" s="1"/>
       <c r="T14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W14" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="U14" t="s">
+      <c r="X14" t="s">
         <v>51</v>
       </c>
-      <c r="V14" t="s">
+      <c r="Y14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -1474,34 +1535,37 @@
       <c r="L15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q15" t="s">
         <v>68</v>
       </c>
-      <c r="O15" t="s">
+      <c r="R15" t="s">
         <v>69</v>
       </c>
-      <c r="P15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="R15" t="s">
+      <c r="S15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U15" t="s">
         <v>64</v>
       </c>
-      <c r="S15" t="s">
+      <c r="V15" t="s">
         <v>64</v>
       </c>
-      <c r="T15" t="s">
+      <c r="W15" t="s">
         <v>64</v>
       </c>
-      <c r="U15" t="s">
+      <c r="X15" t="s">
         <v>69</v>
       </c>
-      <c r="V15" t="s">
+      <c r="Y15" t="s">
         <v>70</v>
       </c>
     </row>
